--- a/biology/Médecine/La_Fabrique_des_pandémies/La_Fabrique_des_pandémies.xlsx
+++ b/biology/Médecine/La_Fabrique_des_pandémies/La_Fabrique_des_pandémies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Fabrique_des_pand%C3%A9mies</t>
+          <t>La_Fabrique_des_pandémies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fabrique des pandémies est un documentaire français réalisé par Marie-Monique Robin et sorti en 2022, faisant suite au livre La Fabrique des pandémies : Préserver la biodiversité, un impératif pour la santé planétaire rédigé en collaboration avec Serge Morand[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fabrique des pandémies est un documentaire français réalisé par Marie-Monique Robin et sorti en 2022, faisant suite au livre La Fabrique des pandémies : Préserver la biodiversité, un impératif pour la santé planétaire rédigé en collaboration avec Serge Morand,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Fabrique_des_pand%C3%A9mies</t>
+          <t>La_Fabrique_des_pandémies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de l'effondrement de la biodiversité perpétrée par l'espèce humaine, des pandémies se multiplient comme le SARS, la Covid-19 impactant la Terre entière.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Fabrique_des_pand%C3%A9mies</t>
+          <t>La_Fabrique_des_pandémies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : La Fabrique des pandémies
 Réalisation : Marie-Monique Robin
@@ -553,7 +569,7 @@
 Genre : documentaire
 Durée : 107 minutes
 Dates de sortie :
-France : 22 avril 2022 (première projection publique ; UNESCO)[3] ; 22 mai 2022 (première à la télévision sur Ushuaïa TV)[3]
+France : 22 avril 2022 (première projection publique ; UNESCO) ; 22 mai 2022 (première à la télévision sur Ushuaïa TV)
 Suisse : 22 mai 2022 (première à la télévision sur RTS)</t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Fabrique_des_pand%C3%A9mies</t>
+          <t>La_Fabrique_des_pandémies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Juliette Binoche
 Scientifiques rencontrés :
